--- a/downloads/Lecturers Upload File.xlsx
+++ b/downloads/Lecturers Upload File.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\arms-alternate\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41537805-D510-4E21-AAC7-706C1CC73D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAEE783-5B3D-42DF-9C15-26932BD9F986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F850D122-C490-4C16-AAC3-1DF6FC6A0268}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>S/N</t>
   </si>
   <si>
-    <t>Fisrt Name</t>
-  </si>
-  <si>
     <t>Surname</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>09087654321</t>
+  </si>
+  <si>
+    <t>First Name</t>
   </si>
 </sst>
 </file>
@@ -166,6 +166,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -175,8 +177,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,62 +507,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -571,50 +571,50 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="7"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="7"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E8" s="7"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="7"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="7"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="7"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="7"/>
+      <c r="E15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
